--- a/uploads/Section_wise_Student_List-_NUP-_III.xlsx
+++ b/uploads/Section_wise_Student_List-_NUP-_III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C90B0-C95B-48E4-9FAF-AA32FFF892DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8186C8B-CBC7-4FF0-8315-9FDA8B2E1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="169">
   <si>
     <t>A</t>
   </si>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>Bharath K N</t>
+  </si>
+  <si>
+    <t>B Vaibhavi Rao</t>
+  </si>
+  <si>
+    <t>2024BEAAE057</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>2024BEAAI065</t>
   </si>
   <si>
     <t>candidate_id</t>
@@ -526,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +585,18 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00303F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +606,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,11 +629,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,9 +657,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -632,6 +668,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DA5AB-A54F-41A2-BC08-438B07186C97}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,29 +979,29 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -962,14 +1011,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -979,14 +1028,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -996,14 +1045,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1013,14 +1062,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1030,14 +1079,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1048,13 +1097,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1064,14 +1113,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1081,14 +1130,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1098,14 +1147,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1115,14 +1164,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1132,14 +1181,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1149,14 +1198,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1166,14 +1215,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1183,14 +1232,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1200,14 +1249,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1217,14 +1266,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1234,14 +1283,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1251,14 +1300,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1268,14 +1317,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1285,14 +1334,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1302,14 +1351,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1319,14 +1368,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1337,13 +1386,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1353,14 +1402,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1370,14 +1419,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1387,14 +1436,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1404,14 +1453,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1421,14 +1470,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1439,13 +1488,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1455,14 +1504,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1472,14 +1521,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1489,14 +1538,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1506,14 +1555,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1523,14 +1572,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1541,13 +1590,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1557,14 +1606,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1574,14 +1623,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1591,14 +1640,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1608,14 +1657,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1626,13 +1675,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1643,13 +1692,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1659,14 +1708,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1676,14 +1725,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1693,14 +1742,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1710,14 +1759,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1727,14 +1776,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1744,14 +1793,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1762,13 +1811,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1778,14 +1827,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="6" t="s">
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1796,13 +1845,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="A52" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1813,30 +1862,30 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1846,14 +1895,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="6" t="s">
+    <row r="55" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -1863,14 +1912,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -1880,14 +1929,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="6" t="s">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1897,31 +1946,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1931,14 +1980,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="6" t="s">
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1948,14 +1997,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="6" t="s">
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1965,14 +2014,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="6" t="s">
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -1982,32 +2031,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>9</v>
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
@@ -2017,13 +2066,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2033,14 +2082,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="6" t="s">
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2050,20 +2099,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>28</v>
       </c>
     </row>
